--- a/static/2025-07-22 FINAL_TEMPLATE.xlsx
+++ b/static/2025-07-22 FINAL_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{EDDC85DD-ADAD-4326-94CB-CC166744F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D746723-3751-4CBC-A266-67911DEA9291}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{EDDC85DD-ADAD-4326-94CB-CC166744F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A65C8F-2BC9-4E1A-98C6-BB29B211D7AD}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="6" r:id="rId1"/>
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="1048">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -3863,6 +3863,18 @@
   </si>
   <si>
     <t>Type 2S</t>
+  </si>
+  <si>
+    <t>UPDATE 2025-07-23</t>
+  </si>
+  <si>
+    <t>ALL OTHER BL WEB SEARCH THEN COMPOSITION</t>
+  </si>
+  <si>
+    <t>REMOVE ISO2, ONLY TAKE COUNTRY NAME</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
   </si>
 </sst>
 </file>
@@ -4008,7 +4020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4066,6 +4078,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4276,7 +4294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4538,6 +4556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4576,7 +4595,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>4359333</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5099,21 +5118,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5879A378-3568-470A-A750-053C2AE70B06}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
-    <col min="2" max="2" width="68.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>1034</v>
       </c>
@@ -5126,8 +5146,11 @@
       <c r="D1" s="80" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="80" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
         <v>1026</v>
       </c>
@@ -5136,7 +5159,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="86" t="s">
         <v>0</v>
       </c>
@@ -5146,8 +5169,11 @@
       <c r="C3" s="81" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="89" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="86" t="s">
         <v>1</v>
       </c>
@@ -5158,7 +5184,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5195,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>3</v>
       </c>
@@ -5180,7 +5206,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>4</v>
       </c>
@@ -5193,8 +5219,11 @@
       <c r="D7" s="84" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="89" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
         <v>5</v>
       </c>
@@ -5208,7 +5237,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="86" t="s">
         <v>6</v>
       </c>
@@ -5222,7 +5251,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="86" t="s">
         <v>7</v>
       </c>
@@ -5233,7 +5262,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
         <v>8</v>
       </c>
@@ -5244,7 +5273,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
         <v>9</v>
       </c>
@@ -5255,7 +5284,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>10</v>
       </c>
@@ -5266,7 +5295,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
         <v>11</v>
       </c>
@@ -5277,7 +5306,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
         <v>12</v>
       </c>
@@ -5287,8 +5316,11 @@
       <c r="C15" s="83" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="99" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="85" t="s">
         <v>13</v>
       </c>
@@ -5299,7 +5331,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
         <v>14</v>
       </c>
@@ -5310,7 +5342,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
         <v>15</v>
       </c>
@@ -5321,7 +5353,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
         <v>16</v>
       </c>
@@ -5332,7 +5364,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
         <v>17</v>
       </c>
@@ -5342,8 +5374,11 @@
       <c r="C20" s="83" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="99" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="85" t="s">
         <v>18</v>
       </c>
@@ -5353,8 +5388,11 @@
       <c r="C21" s="83" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="E21" s="99" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="85" t="s">
         <v>19</v>
       </c>
@@ -5365,7 +5403,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="85" t="s">
         <v>20</v>
       </c>
@@ -5386,7 +5424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A45B4D-6966-4B8B-AC04-EF9EAA6E16F4}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6301,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B81689-37C1-41E6-B816-5DB1682838C0}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
